--- a/設計/バックエンドテスト仕様書.xlsx
+++ b/設計/バックエンドテスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\smoking-area-count\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59143F97-B529-4A5A-8A06-4A4231A95E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B4282-47C1-4AEB-9075-CE6FC1543C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="2625" windowWidth="12465" windowHeight="14265" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="450" windowWidth="12465" windowHeight="16440" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="3" r:id="rId1"/>
@@ -21,27 +21,27 @@
   </externalReferences>
   <definedNames>
     <definedName name="[開本]工程分類">[1]開本変換表!$B$5:$B$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">テスト仕様書!$2:$2</definedName>
     <definedName name="T_ComChkEnm">#REF!</definedName>
     <definedName name="TL1_Command_Mode">#REF!</definedName>
-    <definedName name="Z_07C937DF_9B19_4F7A_953B_7CA7C53509E7_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_1222CA57_929A_41D4_BE25_9E592A6AB8DE_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_35186B6A_34F9_409B_B314_085999155EE0_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_571D7DD0_C3F2_4400_8F70_D9DE1CA826B4_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_8940A7A4_D80A_41E7_90B2_B7572E6D6A8B_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
+    <definedName name="Z_07C937DF_9B19_4F7A_953B_7CA7C53509E7_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_1222CA57_929A_41D4_BE25_9E592A6AB8DE_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_35186B6A_34F9_409B_B314_085999155EE0_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_571D7DD0_C3F2_4400_8F70_D9DE1CA826B4_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_8940A7A4_D80A_41E7_90B2_B7572E6D6A8B_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
     <definedName name="Z_8940A7A4_D80A_41E7_90B2_B7572E6D6A8B_.wvu.PrintTitles" localSheetId="0" hidden="1">テスト仕様書!$2:$2</definedName>
     <definedName name="Z_90CA437D_40FA_44A6_913A_9B189FB4FA56_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$2</definedName>
-    <definedName name="Z_9A4A52C3_004B_4B00_AB06_BD7C0B37F0A9_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
+    <definedName name="Z_9A4A52C3_004B_4B00_AB06_BD7C0B37F0A9_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
     <definedName name="Z_9A4A52C3_004B_4B00_AB06_BD7C0B37F0A9_.wvu.PrintTitles" localSheetId="0" hidden="1">テスト仕様書!$2:$2</definedName>
-    <definedName name="Z_AF32C4FA_C889_45CE_9C32_0FFDDAAC9065_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_B06E16AB_6449_4306_BA78_66DC7F0824D7_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_B136BE0D_E2CA_4C2F_8BDD_76669C95D83A_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
+    <definedName name="Z_AF32C4FA_C889_45CE_9C32_0FFDDAAC9065_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_B06E16AB_6449_4306_BA78_66DC7F0824D7_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_B136BE0D_E2CA_4C2F_8BDD_76669C95D83A_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
     <definedName name="Z_B136BE0D_E2CA_4C2F_8BDD_76669C95D83A_.wvu.PrintTitles" localSheetId="0" hidden="1">テスト仕様書!$2:$2</definedName>
-    <definedName name="Z_E7B8B120_CB48_4066_9DB6_4F9FA0ABCF37_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_EB73383E_98D3_4306_B074_8992ED4F2B32_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_ED114405_3395_4F36_905B_4A2A230A5603_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
-    <definedName name="Z_F67BDF4A_ADEB_46A9_9C1D_3656A2B8502F_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$341</definedName>
+    <definedName name="Z_E7B8B120_CB48_4066_9DB6_4F9FA0ABCF37_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_EB73383E_98D3_4306_B074_8992ED4F2B32_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_ED114405_3395_4F36_905B_4A2A230A5603_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
+    <definedName name="Z_F67BDF4A_ADEB_46A9_9C1D_3656A2B8502F_.wvu.FilterData" localSheetId="0" hidden="1">テスト仕様書!$B$2:$F$342</definedName>
     <definedName name="Z_F67BDF4A_ADEB_46A9_9C1D_3656A2B8502F_.wvu.PrintTitles" localSheetId="0" hidden="1">テスト仕様書!$2:$2</definedName>
     <definedName name="インターフェース">[2]参考資料!#REF!</definedName>
     <definedName name="キャスト">[2]参考資料!#REF!</definedName>
@@ -74,10 +74,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="田中 和博 - 個人用ビュー" guid="{B136BE0D-E2CA-4C2F-8BDD-76669C95D83A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1695" windowHeight="929" tabRatio="722" activeSheetId="1"/>
+    <customWorkbookView name="長岡 優樹 - 個人用ビュー" guid="{9A4A52C3-004B-4B00-AB06-BD7C0B37F0A9}" mergeInterval="0" personalView="1" xWindow="195" yWindow="110" windowWidth="1589" windowHeight="374" tabRatio="722" activeSheetId="3"/>
+    <customWorkbookView name="清水 隆司 - 個人用ビュー" guid="{8940A7A4-D80A-41E7-90B2-B7572E6D6A8B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1348" windowHeight="536" tabRatio="722" activeSheetId="3"/>
     <customWorkbookView name="岩田 拓也 - 個人用ビュー" guid="{F67BDF4A-ADEB-46A9-9C1D-3656A2B8502F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="1296" windowHeight="1040" tabRatio="722" activeSheetId="3"/>
-    <customWorkbookView name="清水 隆司 - 個人用ビュー" guid="{8940A7A4-D80A-41E7-90B2-B7572E6D6A8B}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1348" windowHeight="536" tabRatio="722" activeSheetId="3"/>
-    <customWorkbookView name="長岡 優樹 - 個人用ビュー" guid="{9A4A52C3-004B-4B00-AB06-BD7C0B37F0A9}" mergeInterval="0" personalView="1" xWindow="195" yWindow="110" windowWidth="1589" windowHeight="374" tabRatio="722" activeSheetId="3"/>
-    <customWorkbookView name="田中 和博 - 個人用ビュー" guid="{B136BE0D-E2CA-4C2F-8BDD-76669C95D83A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1695" windowHeight="929" tabRatio="722" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>項番</t>
   </si>
@@ -302,6 +302,564 @@
     </rPh>
     <rPh sb="48" eb="49">
       <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is_capacity_over()で比較する定員上限が文字列の場合でも正しく比較できること</t>
+    <rPh sb="19" eb="21">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイイン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>is_capacity_over()で比較する検知人数が文字列の場合でも正しく比較できること</t>
+    <rPh sb="19" eb="21">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レスポンスとなるjsonが正しく作成されていること</t>
+    <rPh sb="13" eb="14">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検知人数が上限人数未満であるばあいにis_limitにFalseが格納されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>検知人数が上限人数以上であるばあいにis_limitにTrueが格納されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定ファイルに定義されている項目だけjsonに部屋が格納されていること</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/APIにアクセスし、設定ファイルに記載されている全部屋が表示されること</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/APIにアクセスした際にレスポンスのステータスコードが200であること</t>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jsonに期待する項目（room, use, wait, is_limit, limit)の項目があること</t>
+    <rPh sb="5" eb="7">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Responseのjson内にroom_statusのkeyが存在すること</t>
+    <rPh sb="13" eb="14">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>room_status内のvalueに期待する値が存在するか</t>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIにアクセスした際にレスポンスのステータスコードが200であること</t>
+    <rPh sb="19" eb="20">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIにアクセスし、QueryParameterで指定した一つの部屋が表示されること</t>
+    <rPh sb="34" eb="36">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>QueryParameterの値を変更したさいに、ちゃんと変更した値の部屋が取得できること</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIの複数のQueryParameterが指定されている場合、末尾のパラメーターの部屋が表示されること</t>
+    <rPh sb="13" eb="15">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>マツビ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?room=n階&amp;room=m階の場合、m階が表示されるようにFastAPIが自動でやってくれる</t>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIで存在しない部屋をQueryParameterに指定した場合、エラーメッセージに「room not found」が格納されていること</t>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIでQueryParameterを指定しなかった、または「room」が「roo」など途中で切れている場合は「field required」がエラーメッセージに格納されていること</t>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIで5階と11階を指定した際に、指定したふたつの部屋の情報が取得できること</t>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIで5階と9階と11階を指定した際に、指定したみっつの部屋の情報が取得できること</t>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIで存在しない部屋のみを複数指定した場合はステータスコードが204となること</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIで存在しない部屋のみを複数指定した場合は「room not found」のエラーメッセージが格納されていること</t>
+    <rPh sb="12" eb="14">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIで存在しない部屋をQueryParameterに指定した場合、ステータスコードが204であること</t>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>specifiedAPIでQueryParameterを指定しなかった、または「room」が「roo」など途中で切れている場合はステータスコードが422であること</t>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIでQueryParameterを指定しなかった、または「room」が「roo」など途中で切れている場合は「field required」がエラーメッセージに格納されていること</t>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>multipleAPIでQueryParameterを指定しなかった、または「room」が「roo」など途中で切れている場合はステータスコードが422であること</t>
+    <rPh sb="27" eb="29">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>get_frontend_path関数に引数で指定したディレクトリが取得できるか</t>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>get_frontend_path関数に引数で指定したディレクトリが存在しなければ、FileNotFoundErrorを出力するか</t>
+    <rPh sb="17" eb="19">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sys._MEIPASSが存在する場合、get_frontend_path関数に引数で指定したディレクトリが取得できるか</t>
+    <rPh sb="13" eb="15">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sys._MEIPASSが存在する場合、get_frontend_path関数に引数で指定したディレクトリが存在しなければ、FileNotFoundErrorを出力するか</t>
+    <rPh sb="37" eb="39">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シュツリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1601,13 +2159,13 @@
     <tabColor theme="5" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G347"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C9:C10"/>
+      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1625,8 +2183,8 @@
     <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="18"/>
       <c r="C1" s="1">
-        <f>SUBTOTAL(3,C3:C336)</f>
-        <v>9</v>
+        <f>SUBTOTAL(3,C3:C337)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1678,7 +2236,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B69" si="0">B4+1</f>
+        <f t="shared" ref="B5:B70" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1772,7 +2330,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="21"/>
       <c r="F12" s="3"/>
@@ -1783,7 +2343,9 @@
         <f>B12+1</f>
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="21"/>
       <c r="F13" s="3"/>
@@ -1794,7 +2356,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="21"/>
       <c r="F14" s="3"/>
@@ -1805,7 +2369,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="21"/>
       <c r="F15" s="3"/>
@@ -1816,7 +2382,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="21"/>
       <c r="F16" s="3"/>
@@ -1827,7 +2395,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="21"/>
       <c r="F17" s="3"/>
@@ -1838,7 +2408,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="21"/>
       <c r="F18" s="3"/>
@@ -1849,7 +2421,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="21"/>
       <c r="F19" s="3"/>
@@ -1860,7 +2434,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="21"/>
       <c r="F20" s="3"/>
@@ -1871,7 +2447,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="21"/>
       <c r="F21" s="3"/>
@@ -1882,7 +2460,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="21"/>
       <c r="F22" s="3"/>
@@ -1893,7 +2473,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="21"/>
       <c r="F23" s="3"/>
@@ -1904,10 +2486,12 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
@@ -1915,10 +2499,12 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -1926,7 +2512,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="21"/>
       <c r="F26" s="3"/>
@@ -1937,21 +2525,27 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="G28" s="14"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
@@ -1959,7 +2553,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="21"/>
       <c r="F29" s="3"/>
@@ -1970,30 +2566,36 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="21"/>
       <c r="F30" s="3"/>
       <c r="G30" s="14"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="21"/>
       <c r="F31" s="3"/>
       <c r="G31" s="14"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="23"/>
       <c r="E32" s="21"/>
       <c r="F32" s="3"/>
       <c r="G32" s="14"/>
@@ -2003,7 +2605,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="21"/>
       <c r="F33" s="3"/>
@@ -2014,7 +2618,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="21"/>
       <c r="F34" s="3"/>
@@ -2025,7 +2631,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="21"/>
       <c r="F35" s="3"/>
@@ -2036,7 +2644,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="21"/>
       <c r="F36" s="3"/>
@@ -2047,7 +2657,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="21"/>
       <c r="F37" s="3"/>
@@ -2058,7 +2670,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="21"/>
       <c r="F38" s="3"/>
@@ -2069,29 +2683,35 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="21"/>
       <c r="F39" s="3"/>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="21"/>
       <c r="F40" s="3"/>
       <c r="G40" s="14"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="21"/>
       <c r="F41" s="3"/>
@@ -2102,7 +2722,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="21"/>
       <c r="F42" s="3"/>
@@ -2113,7 +2735,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="21"/>
       <c r="F43" s="3"/>
@@ -2124,18 +2748,22 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="21"/>
       <c r="F44" s="3"/>
       <c r="G44" s="14"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="21"/>
       <c r="F45" s="3"/>
@@ -2407,7 +3035,7 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="2">
-        <f t="shared" ref="B70:B133" si="1">B69+1</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C70" s="3"/>
@@ -2418,7 +3046,7 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B71:B134" si="1">B70+1</f>
         <v>69</v>
       </c>
       <c r="C71" s="3"/>
@@ -3111,7 +3739,7 @@
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B134" s="2">
-        <f t="shared" ref="B134:B197" si="2">B133+1</f>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="C134" s="3"/>
@@ -3122,7 +3750,7 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B135:B198" si="2">B134+1</f>
         <v>133</v>
       </c>
       <c r="C135" s="3"/>
@@ -3815,7 +4443,7 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B198" s="2">
-        <f t="shared" ref="B198:B261" si="3">B197+1</f>
+        <f t="shared" si="2"/>
         <v>196</v>
       </c>
       <c r="C198" s="3"/>
@@ -3826,7 +4454,7 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B199" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B199:B262" si="3">B198+1</f>
         <v>197</v>
       </c>
       <c r="C199" s="3"/>
@@ -4519,7 +5147,7 @@
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B262" s="2">
-        <f t="shared" ref="B262:B325" si="4">B261+1</f>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="C262" s="3"/>
@@ -4530,7 +5158,7 @@
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B263" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B263:B326" si="4">B262+1</f>
         <v>261</v>
       </c>
       <c r="C263" s="3"/>
@@ -5223,7 +5851,7 @@
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B326" s="2">
-        <f t="shared" ref="B326:B336" si="5">B325+1</f>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="C326" s="3"/>
@@ -5234,7 +5862,7 @@
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B327" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B327:B337" si="5">B326+1</f>
         <v>325</v>
       </c>
       <c r="C327" s="3"/>
@@ -5331,8 +5959,8 @@
       <c r="F335" s="3"/>
       <c r="G335" s="14"/>
     </row>
-    <row r="336" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="4">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B336" s="2">
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
@@ -5342,18 +5970,21 @@
       <c r="F336" s="3"/>
       <c r="G336" s="14"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B337" s="24" t="s">
+    <row r="337" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="4">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="21"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="14"/>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B338" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C337" s="25"/>
-      <c r="D337" s="25"/>
-      <c r="E337" s="25"/>
-      <c r="F337" s="26"/>
-      <c r="G337" s="12"/>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B338" s="27"/>
       <c r="C338" s="25"/>
       <c r="D338" s="25"/>
       <c r="E338" s="25"/>
@@ -5368,8 +5999,7 @@
       <c r="F339" s="26"/>
       <c r="G339" s="12"/>
     </row>
-    <row r="340" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A340" s="5"/>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B340" s="27"/>
       <c r="C340" s="25"/>
       <c r="D340" s="25"/>
@@ -5377,30 +6007,30 @@
       <c r="F340" s="26"/>
       <c r="G340" s="12"/>
     </row>
-    <row r="341" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="5"/>
-      <c r="B341" s="28"/>
-      <c r="C341" s="29"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="29"/>
-      <c r="F341" s="30"/>
+      <c r="B341" s="27"/>
+      <c r="C341" s="25"/>
+      <c r="D341" s="25"/>
+      <c r="E341" s="25"/>
+      <c r="F341" s="26"/>
       <c r="G341" s="12"/>
     </row>
-    <row r="342" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="B342" s="19"/>
-      <c r="C342" s="6"/>
-      <c r="D342" s="6"/>
-      <c r="E342" s="13"/>
-      <c r="F342" s="5"/>
-      <c r="G342" s="5"/>
-    </row>
-    <row r="343" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B342" s="28"/>
+      <c r="C342" s="29"/>
+      <c r="D342" s="29"/>
+      <c r="E342" s="29"/>
+      <c r="F342" s="30"/>
+      <c r="G342" s="12"/>
+    </row>
+    <row r="343" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A343" s="5"/>
       <c r="B343" s="19"/>
-      <c r="C343" s="5"/>
-      <c r="D343" s="5"/>
-      <c r="E343" s="16"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="6"/>
+      <c r="E343" s="13"/>
       <c r="F343" s="5"/>
       <c r="G343" s="5"/>
     </row>
@@ -5413,11 +6043,14 @@
       <c r="F344" s="5"/>
       <c r="G344" s="5"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A345" s="5"/>
       <c r="B345" s="19"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="16"/>
+      <c r="F345" s="5"/>
+      <c r="G345" s="5"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B346" s="19"/>
@@ -5431,10 +6064,16 @@
       <c r="D347" s="5"/>
       <c r="E347" s="16"/>
     </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B348" s="19"/>
+      <c r="C348" s="5"/>
+      <c r="D348" s="5"/>
+      <c r="E348" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:F341" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="B2:F342" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <customSheetViews>
-    <customSheetView guid="{F67BDF4A-ADEB-46A9-9C1D-3656A2B8502F}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{B136BE0D-E2CA-4C2F-8BDD-76669C95D83A}" scale="80" fitToPage="1" showAutoFilter="1">
       <pane xSplit="3" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
       <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5444,9 +6083,9 @@
       </headerFooter>
       <autoFilter ref="B2:S345" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{8940A7A4-D80A-41E7-90B2-B7572E6D6A8B}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
-      <pane xSplit="3" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
+    <customSheetView guid="{9A4A52C3-004B-4B00-AB06-BD7C0B37F0A9}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
       <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
       <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0">
@@ -5454,9 +6093,9 @@
       </headerFooter>
       <autoFilter ref="B2:S345" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{9A4A52C3-004B-4B00-AB06-BD7C0B37F0A9}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
-      <pane xSplit="3" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+    <customSheetView guid="{8940A7A4-D80A-41E7-90B2-B7572E6D6A8B}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
+      <pane xSplit="3" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="R33" sqref="R33"/>
       <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
       <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0">
@@ -5464,7 +6103,7 @@
       </headerFooter>
       <autoFilter ref="B2:S345" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{B136BE0D-E2CA-4C2F-8BDD-76669C95D83A}" scale="80" fitToPage="1" showAutoFilter="1">
+    <customSheetView guid="{F67BDF4A-ADEB-46A9-9C1D-3656A2B8502F}" scale="80" showPageBreaks="1" fitToPage="1" showAutoFilter="1">
       <pane xSplit="3" ySplit="2" topLeftCell="F51" activePane="bottomRight" state="frozen"/>
       <selection pane="bottomRight" activeCell="Q57" sqref="Q57"/>
       <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5476,7 +6115,7 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
-    <mergeCell ref="B337:F341"/>
+    <mergeCell ref="B338:F342"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/設計/バックエンドテスト仕様書.xlsx
+++ b/設計/バックエンドテスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\smoking-area-count\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B4282-47C1-4AEB-9075-CE6FC1543C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A537D-BD4F-46E7-94B8-9F03C301355D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="450" windowWidth="12465" windowHeight="16440" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>項番</t>
   </si>
@@ -860,6 +860,135 @@
     </rPh>
     <rPh sb="80" eb="82">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tomlを正しく読めていること</t>
+    <rPh sb="5" eb="6">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tomlが存在しない場合、FileNotFoundErrorを出力すること</t>
+    <rPh sb="5" eb="7">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/selectAPIにQueryParameterをつけなかったときに、全部屋表示のhtmlが表示されること</t>
+    <rPh sb="36" eb="37">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/selectAPIにQueryParameterで部屋を複数指定したとき、指定した複数の部屋の表示のhtmlが表示されること</t>
+    <rPh sb="26" eb="28">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/selectAPIにQueryParameterで部屋を一つ指定したとき、指定した一つの部屋の表示のhtmlが表示されること</t>
+    <rPh sb="26" eb="28">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/selectAPIにQueryParameterで部屋の指定で「11階、9階」のように降順で指定したとき、「9階、11階」表示のhtmlが表示されること</t>
+    <rPh sb="26" eb="28">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2162,10 +2291,10 @@
   <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C49" sqref="C49"/>
+      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2184,7 +2313,7 @@
       <c r="B1" s="18"/>
       <c r="C1" s="1">
         <f>SUBTOTAL(3,C3:C337)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2774,7 +2903,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="21"/>
       <c r="F46" s="3"/>
@@ -2785,7 +2916,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="21"/>
       <c r="F47" s="3"/>
@@ -2796,7 +2929,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="21"/>
       <c r="F48" s="3"/>
@@ -2807,7 +2942,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="21"/>
       <c r="F49" s="3"/>
@@ -2818,7 +2955,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="21"/>
       <c r="F50" s="3"/>
@@ -2829,7 +2968,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="21"/>
       <c r="F51" s="3"/>

--- a/設計/バックエンドテスト仕様書.xlsx
+++ b/設計/バックエンドテスト仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\smoking-area-count\設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A537D-BD4F-46E7-94B8-9F03C301355D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04EF57-1928-42FA-A7BD-3EA066A234A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="450" windowWidth="12465" windowHeight="16440" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="450" windowWidth="23790" windowHeight="16440" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト仕様書" sheetId="3" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="53">
   <si>
     <t>項番</t>
   </si>
@@ -989,6 +989,13 @@
     </rPh>
     <rPh sb="70" eb="72">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動テスト</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1701,7 +1708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1769,9 +1776,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2291,10 +2295,10 @@
   <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,7 +2345,9 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2362,9 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E4" s="21" t="s">
         <v>6</v>
       </c>
@@ -2371,8 +2379,12 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="14"/>
     </row>
@@ -2384,8 +2396,12 @@
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="14"/>
     </row>
@@ -2397,8 +2413,12 @@
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="14"/>
     </row>
@@ -2410,8 +2430,12 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="14"/>
     </row>
@@ -2423,8 +2447,12 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="14"/>
     </row>
@@ -2436,8 +2464,12 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="14"/>
     </row>
@@ -2449,8 +2481,12 @@
       <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="14"/>
     </row>
@@ -2462,8 +2498,12 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="14"/>
     </row>
@@ -2475,8 +2515,12 @@
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="14"/>
     </row>
@@ -2488,8 +2532,12 @@
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="14"/>
     </row>
@@ -2501,8 +2549,12 @@
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="14"/>
     </row>
@@ -2514,8 +2566,12 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="14"/>
     </row>
@@ -2527,8 +2583,12 @@
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="14"/>
     </row>
@@ -2540,8 +2600,12 @@
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="14"/>
     </row>
@@ -2553,8 +2617,12 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="14"/>
     </row>
@@ -2566,8 +2634,12 @@
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="14"/>
     </row>
@@ -2579,8 +2651,12 @@
       <c r="C21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="14"/>
     </row>
@@ -2592,8 +2668,12 @@
       <c r="C22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="14"/>
     </row>
@@ -2605,8 +2685,12 @@
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="14"/>
     </row>
@@ -2618,8 +2702,12 @@
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="14"/>
     </row>
@@ -2631,8 +2719,12 @@
       <c r="C25" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="14"/>
     </row>
@@ -2644,8 +2736,12 @@
       <c r="C26" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="14"/>
     </row>
@@ -2657,8 +2753,12 @@
       <c r="C27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="14"/>
     </row>
@@ -2670,8 +2770,12 @@
       <c r="C28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F28" s="22" t="s">
         <v>31</v>
       </c>
@@ -2685,8 +2789,12 @@
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="14"/>
     </row>
@@ -2698,8 +2806,12 @@
       <c r="C30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="14"/>
     </row>
@@ -2711,8 +2823,12 @@
       <c r="C31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="14"/>
     </row>
@@ -2724,8 +2840,12 @@
       <c r="C32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="14"/>
     </row>
@@ -2737,8 +2857,12 @@
       <c r="C33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F33" s="3"/>
       <c r="G33" s="14"/>
     </row>
@@ -2750,8 +2874,12 @@
       <c r="C34" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F34" s="3"/>
       <c r="G34" s="14"/>
     </row>
@@ -2763,8 +2891,12 @@
       <c r="C35" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="14"/>
     </row>
@@ -2776,8 +2908,12 @@
       <c r="C36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="14"/>
     </row>
@@ -2789,8 +2925,12 @@
       <c r="C37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="14"/>
     </row>
@@ -2802,8 +2942,12 @@
       <c r="C38" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F38" s="3"/>
       <c r="G38" s="14"/>
     </row>
@@ -2815,8 +2959,12 @@
       <c r="C39" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="14"/>
     </row>
@@ -2828,8 +2976,12 @@
       <c r="C40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="14"/>
     </row>
@@ -2841,8 +2993,12 @@
       <c r="C41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="21"/>
+      <c r="D41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="14"/>
     </row>
@@ -2854,8 +3010,12 @@
       <c r="C42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="14"/>
     </row>
@@ -2867,8 +3027,12 @@
       <c r="C43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="21"/>
+      <c r="D43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="14"/>
     </row>
@@ -2880,8 +3044,12 @@
       <c r="C44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="21"/>
+      <c r="D44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="14"/>
     </row>
@@ -2893,8 +3061,12 @@
       <c r="C45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="21"/>
+      <c r="D45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="14"/>
     </row>
@@ -2906,8 +3078,12 @@
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="21"/>
+      <c r="D46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="14"/>
     </row>
@@ -2919,8 +3095,12 @@
       <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="21"/>
+      <c r="D47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="14"/>
     </row>
@@ -2932,8 +3112,12 @@
       <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="21"/>
+      <c r="D48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F48" s="3"/>
       <c r="G48" s="14"/>
     </row>
@@ -2945,8 +3129,12 @@
       <c r="C49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="21"/>
+      <c r="D49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F49" s="3"/>
       <c r="G49" s="14"/>
     </row>
@@ -2958,8 +3146,12 @@
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="21"/>
+      <c r="D50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="14"/>
     </row>
@@ -2971,8 +3163,12 @@
       <c r="C51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>6</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="14"/>
     </row>
@@ -6123,47 +6319,47 @@
       <c r="G337" s="14"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B338" s="24" t="s">
+      <c r="B338" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C338" s="25"/>
-      <c r="D338" s="25"/>
-      <c r="E338" s="25"/>
-      <c r="F338" s="26"/>
+      <c r="C338" s="24"/>
+      <c r="D338" s="24"/>
+      <c r="E338" s="24"/>
+      <c r="F338" s="25"/>
       <c r="G338" s="12"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B339" s="27"/>
-      <c r="C339" s="25"/>
-      <c r="D339" s="25"/>
-      <c r="E339" s="25"/>
-      <c r="F339" s="26"/>
+      <c r="B339" s="26"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="24"/>
+      <c r="F339" s="25"/>
       <c r="G339" s="12"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B340" s="27"/>
-      <c r="C340" s="25"/>
-      <c r="D340" s="25"/>
-      <c r="E340" s="25"/>
-      <c r="F340" s="26"/>
+      <c r="B340" s="26"/>
+      <c r="C340" s="24"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="24"/>
+      <c r="F340" s="25"/>
       <c r="G340" s="12"/>
     </row>
     <row r="341" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A341" s="5"/>
-      <c r="B341" s="27"/>
-      <c r="C341" s="25"/>
-      <c r="D341" s="25"/>
-      <c r="E341" s="25"/>
-      <c r="F341" s="26"/>
+      <c r="B341" s="26"/>
+      <c r="C341" s="24"/>
+      <c r="D341" s="24"/>
+      <c r="E341" s="24"/>
+      <c r="F341" s="25"/>
       <c r="G341" s="12"/>
     </row>
     <row r="342" spans="1:7" s="8" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5"/>
-      <c r="B342" s="28"/>
-      <c r="C342" s="29"/>
-      <c r="D342" s="29"/>
-      <c r="E342" s="29"/>
-      <c r="F342" s="30"/>
+      <c r="B342" s="27"/>
+      <c r="C342" s="28"/>
+      <c r="D342" s="28"/>
+      <c r="E342" s="28"/>
+      <c r="F342" s="29"/>
       <c r="G342" s="12"/>
     </row>
     <row r="343" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
